--- a/Данные для разработки/Игровой баланс/Герои при выпадении.xlsx
+++ b/Данные для разработки/Игровой баланс/Герои при выпадении.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProjects\Game03_Git\Данные для разработки\Игровой баланс\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD52C7-E94D-461C-8B68-9F78C81DBCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC524262-C7E1-4671-8AF9-C126BE95CED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{3B3630A8-8A0B-4A97-8DE7-45BAAD8F95DB}"/>
+    <workbookView xWindow="-23925" yWindow="1710" windowWidth="21600" windowHeight="11505" xr2:uid="{3B3630A8-8A0B-4A97-8DE7-45BAAD8F95DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Редкость</t>
   </si>
@@ -48,7 +48,13 @@
     <t>Соотношение здоровья и атаки 5 к 1.</t>
   </si>
   <si>
-    <t>Герой должен убивать сам себя за 5 ударов в базовом варианте</t>
+    <t>Здоровье базовое (*sqrt(2))</t>
+  </si>
+  <si>
+    <t>Атака базовая (calc)</t>
+  </si>
+  <si>
+    <t>Герой должен убивать сам себя за 4,75 ударов в базовом варианте</t>
   </si>
 </sst>
 </file>
@@ -65,12 +71,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,14 +115,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9933"/>
+      <color rgb="FF9900CC"/>
+      <color rgb="FFCC0099"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -401,101 +447,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC74E0BD-E1FB-49D9-8180-25D0A9778431}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>200</v>
       </c>
       <c r="C2">
-        <f>B2/5</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <f>ROUNDUP(B2/2,0)*2</f>
+        <v>200</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2/4.75</f>
+        <v>42.10526315789474</v>
+      </c>
+      <c r="E2">
+        <f>ROUNDUP(D2/2,0)*2</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>280</v>
+      <c r="B3" s="1">
+        <f>B2*SQRT(2)</f>
+        <v>282.84271247461902</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C6" si="0">B3/5</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <f t="shared" ref="C3:C6" si="0">ROUNDUP(B3/2,0)*2</f>
+        <v>284</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D6" si="1">C3/4.75</f>
+        <v>59.789473684210527</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="2">ROUNDUP(D3/2,0)*2</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>400</v>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B6" si="3">B3*SQRT(2)</f>
+        <v>400.00000000000006</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>84.21052631578948</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>550</v>
+      <c r="B5" s="1">
+        <f t="shared" si="3"/>
+        <v>565.68542494923815</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>566</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>119.15789473684211</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>770</v>
+      <c r="B6" s="1">
+        <f t="shared" si="3"/>
+        <v>800.00000000000023</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>800</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>168.42105263157896</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D2:D5 D6" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>